--- a/Reports/heart/heart_multifairgan_50_05.xlsx
+++ b/Reports/heart/heart_multifairgan_50_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.08649999999999999</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0443</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9187</v>
+        <v>0.9989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1506</v>
+        <v>1.4979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0707</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.3286</v>
+        <v>1.5223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0595</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8706</v>
+        <v>1.0335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0374</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7228</v>
+        <v>0.6413</v>
       </c>
     </row>
     <row r="13">
